--- a/public/vendor/item-format.xlsx
+++ b/public/vendor/item-format.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Downloads\Programming\POS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hermes\public\vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B440C4-D212-4095-AC3F-8A0ACA4A05C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2293,7 +2292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2613,12 +2612,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J362"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2638,7 +2637,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>741</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>406</v>
@@ -2693,7 +2692,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>407</v>
@@ -2716,7 +2715,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>408</v>
@@ -2739,7 +2738,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>409</v>
@@ -2762,7 +2761,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>410</v>
@@ -2785,7 +2784,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>411</v>
@@ -2808,7 +2807,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>412</v>
@@ -2831,7 +2830,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>413</v>
@@ -2854,7 +2853,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>414</v>
@@ -2877,7 +2876,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>415</v>
@@ -2900,7 +2899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>416</v>
@@ -2923,7 +2922,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>417</v>
@@ -2946,7 +2945,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>418</v>
@@ -2969,7 +2968,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>419</v>
@@ -2992,7 +2991,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>420</v>
@@ -3015,7 +3014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>421</v>
@@ -3038,7 +3037,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>422</v>
@@ -3061,7 +3060,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>423</v>
@@ -3084,7 +3083,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>423</v>
@@ -3107,7 +3106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>424</v>
@@ -3130,7 +3129,7 @@
         <v>146.66999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>425</v>
@@ -3153,7 +3152,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>426</v>
@@ -3176,7 +3175,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>427</v>
@@ -3199,7 +3198,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>428</v>
@@ -3222,7 +3221,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>429</v>
@@ -3245,7 +3244,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>430</v>
@@ -3268,7 +3267,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>431</v>
@@ -3291,7 +3290,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>432</v>
@@ -3314,7 +3313,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>433</v>
@@ -3337,7 +3336,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>434</v>
@@ -3360,7 +3359,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>435</v>
@@ -3383,7 +3382,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>2</v>
       </c>
@@ -3751,7 +3750,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>2</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>2</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>2</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>2</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="64" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>3</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
@@ -4257,7 +4256,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="72" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>4</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>4</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>4</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="84" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="91" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="92" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>4</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>4</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="103" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="105" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="106" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="107" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="108" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="109" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="110" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>4</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="112" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="113" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>4</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="119" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="120" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="122" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="123" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="124" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>4</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>4</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="126" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>4</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="129" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="130" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>4</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="131" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>4</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="132" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="133" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>5</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="134" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>5</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="135" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>5</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="136" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>5</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="137" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>5</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="138" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>5</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="139" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>5</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>5</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>5</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>5</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>5</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>5</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>5</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>5</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>5</v>
       </c>
@@ -6120,7 +6119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="153" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="154" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="155" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="156" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>6</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="157" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="158" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>6</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="159" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>6</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="160" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>6</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="161" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="162" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>6</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>6</v>
       </c>
@@ -6419,7 +6418,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="165" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>6</v>
       </c>
@@ -6442,7 +6441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="167" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>6</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>6</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="169" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>6</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="170" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>6</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="171" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="172" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>6</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>6</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="179" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>6</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6786,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="181" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>6</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="183" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="184" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="187" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="188" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>6</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="189" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>6</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="190" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>6</v>
       </c>
@@ -7040,7 +7039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>7</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>7</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>7</v>
       </c>
@@ -7109,7 +7108,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="195" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>7</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="196" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>7</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="197" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>7</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="198" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>7</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="199" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>7</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="200" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>7</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="201" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>7</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="202" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>7</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>7</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>7</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>7</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>7</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>7</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="208" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>7</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="209" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>7</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>7</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="211" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>7</v>
       </c>
@@ -7500,7 +7499,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="212" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>7</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>7</v>
       </c>
@@ -7546,7 +7545,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="214" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>7</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>7</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="216" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>7</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>7</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="218" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
         <v>7</v>
       </c>
@@ -7661,7 +7660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
         <v>7</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="220" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>7</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="221" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>7</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>8</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="223" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>8</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="224" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>8</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>8</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="226" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>8</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>8</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>8</v>
       </c>
@@ -7891,7 +7890,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="229" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>8</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="230" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>8</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="231" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>8</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="232" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>8</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>8</v>
       </c>
@@ -8006,7 +8005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="234" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>8</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="235" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>8</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>8</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>8</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>8</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>8</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>8</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>8</v>
       </c>
@@ -8190,7 +8189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>8</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="243" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>8</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="244" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>8</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
         <v>8</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>8</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>8</v>
       </c>
@@ -8328,7 +8327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
         <v>8</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>8</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
         <v>8</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>8</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>8</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
         <v>8</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="254" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>8</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
         <v>8</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>8</v>
       </c>
@@ -8535,7 +8534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
         <v>8</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
         <v>8</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
         <v>8</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
         <v>8</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
         <v>8</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
         <v>9</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="263" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>9</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="264" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
         <v>9</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="265" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
         <v>9</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="266" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
         <v>9</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="267" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
         <v>9</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="268" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
         <v>9</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="269" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
         <v>9</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="270" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
         <v>9</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="271" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
         <v>9</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="272" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
         <v>9</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="273" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>9</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="274" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
         <v>9</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="275" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
         <v>9</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="276" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>9</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="277" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>9</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="278" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>9</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="279" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
         <v>9</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="280" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
         <v>9</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="281" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
         <v>9</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="282" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
         <v>10</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="283" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
         <v>10</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="284" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>10</v>
       </c>
@@ -9179,7 +9178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="285" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
         <v>10</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
         <v>10</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="287" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
         <v>10</v>
       </c>
@@ -9248,7 +9247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="288" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
         <v>10</v>
       </c>
@@ -9271,7 +9270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="289" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
         <v>10</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>10</v>
       </c>
@@ -9317,7 +9316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
         <v>10</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
         <v>10</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
         <v>10</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
         <v>10</v>
       </c>
@@ -9409,7 +9408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
         <v>10</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
         <v>10</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="297" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
         <v>10</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="298" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
         <v>10</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="299" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
         <v>10</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="300" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
         <v>10</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="301" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
         <v>10</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="302" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>11</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="303" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
         <v>11</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="304" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
         <v>11</v>
       </c>
@@ -9639,7 +9638,7 @@
         <v>10950</v>
       </c>
     </row>
-    <row r="305" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
         <v>11</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="306" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
         <v>11</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="307" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
         <v>11</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="308" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
         <v>11</v>
       </c>
@@ -9731,7 +9730,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="309" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
         <v>11</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="310" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
         <v>11</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="311" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
         <v>11</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="312" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
         <v>11</v>
       </c>
@@ -9823,7 +9822,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="313" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
         <v>11</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="314" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
         <v>11</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="315" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
         <v>11</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
         <v>11</v>
       </c>
@@ -9915,7 +9914,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="317" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
         <v>11</v>
       </c>
@@ -9938,7 +9937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="318" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
         <v>11</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="319" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
         <v>11</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="320" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
         <v>11</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="321" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
         <v>11</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="322" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
         <v>11</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="323" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
         <v>11</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="324" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>11</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="325" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
         <v>11</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="326" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
         <v>11</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="327" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
         <v>11</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="328" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
         <v>11</v>
       </c>
@@ -10191,7 +10190,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="329" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
         <v>11</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="330" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
         <v>11</v>
       </c>
@@ -10237,7 +10236,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="331" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
         <v>11</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="332" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
         <v>12</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="333" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>12</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="334" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
         <v>12</v>
       </c>
@@ -10329,7 +10328,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="335" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
         <v>12</v>
       </c>
@@ -10352,7 +10351,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="336" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
         <v>12</v>
       </c>
@@ -10375,7 +10374,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="337" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
         <v>12</v>
       </c>
@@ -10398,7 +10397,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="338" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
         <v>12</v>
       </c>
@@ -10421,7 +10420,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="339" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
         <v>12</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="340" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
         <v>12</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="341" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
         <v>12</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="342" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
         <v>12</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="343" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
         <v>12</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="344" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
         <v>12</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="345" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
         <v>12</v>
       </c>
@@ -10582,7 +10581,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="346" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
         <v>12</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="347" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
         <v>12</v>
       </c>
@@ -10628,7 +10627,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="348" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
         <v>12</v>
       </c>
@@ -10651,7 +10650,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="349" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
         <v>12</v>
       </c>
@@ -10674,7 +10673,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="350" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
         <v>12</v>
       </c>
@@ -10697,7 +10696,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
         <v>12</v>
       </c>
@@ -10720,7 +10719,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="352" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
         <v>13</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="353" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
         <v>13</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="354" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
         <v>13</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="355" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
         <v>13</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
         <v>13</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
         <v>13</v>
       </c>
@@ -10860,7 +10859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
         <v>13</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
         <v>13</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="360" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
         <v>13</v>
       </c>
@@ -10932,7 +10931,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="361" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
         <v>13</v>
       </c>
@@ -10956,7 +10955,6 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="362" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
